--- a/finalproject/resources/Statistics.xlsx
+++ b/finalproject/resources/Statistics.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/airicacheah/Documents/NM2207/web/finalproject/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC77ACD-F229-FD42-A62F-4C661080E8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04856109-2C48-6B43-A28C-0001EE93DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14420" activeTab="4" xr2:uid="{5D12CD28-7760-0B49-A6D2-A78B4EF7505E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12680" windowHeight="16000" xr2:uid="{5D12CD28-7760-0B49-A6D2-A78B4EF7505E}"/>
   </bookViews>
   <sheets>
-    <sheet name="race" sheetId="1" r:id="rId1"/>
-    <sheet name="plussize" sheetId="4" r:id="rId2"/>
-    <sheet name="over50" sheetId="5" r:id="rId3"/>
-    <sheet name="transgender non-binary" sheetId="6" r:id="rId4"/>
-    <sheet name="plus size" sheetId="2" r:id="rId5"/>
-    <sheet name="newyorkfw" sheetId="3" r:id="rId6"/>
+    <sheet name="Vogue demographics(countries)" sheetId="7" r:id="rId1"/>
+    <sheet name="Vogue demographics (age)" sheetId="8" state="hidden" r:id="rId2"/>
+    <sheet name="race" sheetId="1" r:id="rId3"/>
+    <sheet name="over50" sheetId="5" r:id="rId4"/>
+    <sheet name="plussize" sheetId="4" r:id="rId5"/>
+    <sheet name="transgender non-binary" sheetId="6" r:id="rId6"/>
+    <sheet name="plus size" sheetId="2" r:id="rId7"/>
+    <sheet name="newyorkfw" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Season</t>
   </si>
@@ -158,6 +160,48 @@
   </si>
   <si>
     <t>https://www.thefashionspot.com/runway-news/858789-diversity-report-fashion-month-spring-2021/</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Readership (%)</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Gender/Age</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
   </si>
 </sst>
 </file>
@@ -509,11 +553,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D75BEA-05C6-5640-9DD1-9D044B29B82E}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E5230F-F611-854B-A9B2-7ED28A16EDB1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>46.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>36.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D83F61-F126-054E-BF10-9FE2A5FDD95A}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D75BEA-05C6-5640-9DD1-9D044B29B82E}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +691,7 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -545,95 +715,128 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>30.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>36.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>38.799999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>41.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>41.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -641,7 +844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -662,7 +865,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8214F0-5B7F-A04B-8FAC-71899BC7DB74}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71C86B0-3158-0B40-B99C-D7CC8AEEAEF7}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -781,126 +1103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8214F0-5B7F-A04B-8FAC-71899BC7DB74}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE1A12B-A3D0-E445-BCFF-8BA8A90A4AB6}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1019,11 +1222,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DBD0C1-4665-C942-B6A9-15D0257D3034}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1094,7 +1297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB45668F-C68A-D34B-98FB-175941BBA89B}">
   <dimension ref="A1:D14"/>
   <sheetViews>
